--- a/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/Class Schedule.xlsx
+++ b/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/Class Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_D05C19F27049CB25F8D06924BEB9809B3CD6ADF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDCBD3E-A247-4A80-834F-7ADD3DA1E31F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_D05C19F27049CB25F8D06924BEB9809B3CD6ADF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C54C254-81A9-4BB8-9DBF-83653DDAC64F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computer Classes" sheetId="2" r:id="rId1"/>
@@ -519,10 +519,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{999404BF-A819-40CB-9807-49EDD4EC8431}" name="Table2" displayName="Table2" ref="A2:P50" totalsRowShown="0">
   <autoFilter ref="A2:P50" xr:uid="{999404BF-A819-40CB-9807-49EDD4EC8431}"/>
@@ -549,9 +545,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,9 +585,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,26 +620,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,26 +655,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -874,31 +836,31 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
@@ -918,7 +880,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -968,7 +930,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1030,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1268,7 +1230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1318,7 +1280,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1380,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1468,7 +1430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +1530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1618,7 +1580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1668,7 +1630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1718,7 +1680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1768,7 +1730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1818,7 +1780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1868,7 +1830,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1918,7 +1880,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1968,7 +1930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2018,7 +1980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2118,7 +2080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2168,7 +2130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2268,7 +2230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2280,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2368,7 +2330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2418,7 +2380,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -2468,7 +2430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2518,7 +2480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2566,7 +2528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2616,7 +2578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2666,7 +2628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2716,7 +2678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2766,7 +2728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2816,7 +2778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2866,7 +2828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +2878,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2966,7 +2928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3016,7 +2978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3066,7 +3028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3116,7 +3078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3166,7 +3128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3216,7 +3178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -3266,7 +3228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3316,7 +3278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3366,7 +3328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>121</v>
       </c>
@@ -3380,7 +3342,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="62" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
